--- a/out/Frisksnit/Rigshospitalet (RH), Centralkøkken - Økologi statistik august 2024.xlsx
+++ b/out/Frisksnit/Rigshospitalet (RH), Centralkøkken - Økologi statistik august 2024.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
   <si>
     <t>1056930 - FRISKSNIT.dk</t>
   </si>
@@ -814,7 +814,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>9% filler,90% containsProduct,</t>
@@ -829,12 +829,6 @@
     <t>1% filler,17% containsSingleMass,17% containsProduct,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% QuantityHeader,</t>
   </si>
   <si>
-    <t>2% filler,21% containsSingleMass,10% containsProductNr,21% containsAmount,21% SingleMassHeader,21% QuantityHeader,</t>
-  </si>
-  <si>
-    <t>1% filler,15% containsTotalMass,15% containsSingleMass,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,15% QuantityHeader,</t>
-  </si>
-  <si>
     <t>2% filler,21% containsSingleMass,21% containsProduct,10% containsProductNr,21% containsAmount,21% SingleMassHeader,</t>
   </si>
   <si>
@@ -844,16 +838,13 @@
     <t xml:space="preserve">VARENR, </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">PRODUKT, </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
   </si>
   <si>
     <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUKT, ANTAL, STK. MASSE, TOTAL MASSE </t>
   </si>
 </sst>
 </file>
@@ -878,7 +869,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -937,7 +928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -958,16 +949,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5F94AD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7499D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8C9CB1"/>
       </patternFill>
     </fill>
     <fill>
@@ -1014,7 +995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="2" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1067,8 +1048,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1077,22 +1056,30 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" applyNumberFormat="1" fontId="1" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="22" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="22" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="24" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="23" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -4186,7 +4173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040F246D-3AAF-4417-A9B4-0A493E3E2ABC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1793296-1F54-45FD-8844-B41608E92C36}">
   <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
@@ -4611,9 +4598,6 @@
       <c r="G18" s="26">
         <v>2012.92</v>
       </c>
-      <c r="H18" s="34" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="28" t="s">
@@ -4638,9 +4622,6 @@
       <c r="G19" s="26">
         <v>107.16</v>
       </c>
-      <c r="H19" s="35" t="s">
-        <v>267</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="28" t="s">
@@ -6401,7 +6382,7 @@
       <c r="B93" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="C93" s="32" t="s">
+      <c r="C93" s="31" t="s">
         <v>201</v>
       </c>
       <c r="D93" s="24">
@@ -6425,7 +6406,7 @@
       <c r="B94" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C94" s="32" t="s">
+      <c r="C94" s="31" t="s">
         <v>203</v>
       </c>
       <c r="D94" s="24">
@@ -6449,7 +6430,7 @@
       <c r="B95" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="C95" s="33" t="s">
+      <c r="C95" s="30" t="s">
         <v>205</v>
       </c>
       <c r="D95" s="24">
@@ -6473,7 +6454,7 @@
       <c r="B96" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="C96" s="33" t="s">
+      <c r="C96" s="30" t="s">
         <v>207</v>
       </c>
       <c r="D96" s="24">
@@ -6497,7 +6478,7 @@
       <c r="B97" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C97" s="34" t="s">
+      <c r="C97" s="32" t="s">
         <v>210</v>
       </c>
       <c r="D97" s="24">
@@ -6641,7 +6622,7 @@
       <c r="B103" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="C103" s="33" t="s">
         <v>224</v>
       </c>
       <c r="D103" s="27">
@@ -6662,7 +6643,7 @@
       <c r="A104" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B104" s="36">
+      <c r="B104" s="34">
         <v>3040</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -6670,11 +6651,11 @@
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="2"/>
-      <c r="F104" s="37">
+      <c r="F104" s="35">
         <f>SUM(F7:F103)</f>
         <v>2949</v>
       </c>
-      <c r="G104" s="38">
+      <c r="G104" s="36">
         <f>SUM(G7:G103)</f>
         <v>118010.61000000003</v>
       </c>
@@ -6927,7 +6908,7 @@
       <c r="A116" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B116" s="36">
+      <c r="B116" s="34">
         <v>3040</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -6935,11 +6916,11 @@
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="2"/>
-      <c r="F116" s="37">
+      <c r="F116" s="35">
         <f>SUM(F107:F115)</f>
         <v>555</v>
       </c>
-      <c r="G116" s="38">
+      <c r="G116" s="36">
         <f>SUM(G107:G115)</f>
         <v>17223.16</v>
       </c>
@@ -6969,11 +6950,11 @@
         <v>246</v>
       </c>
       <c r="E118" s="2"/>
-      <c r="F118" s="37">
+      <c r="F118" s="35">
         <f>+F104+F116</f>
         <v>3504</v>
       </c>
-      <c r="G118" s="38">
+      <c r="G118" s="36">
         <f>+G104+G116</f>
         <v>135233.77000000002</v>
       </c>
@@ -6986,11 +6967,11 @@
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="39">
+      <c r="F119" s="37">
         <f>+F116/F118</f>
         <v>0.1583904109589041</v>
       </c>
-      <c r="G119" s="39">
+      <c r="G119" s="37">
         <f>+G116/G118</f>
         <v>0.12735842534006112</v>
       </c>
@@ -7002,7 +6983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD094C0-0EB1-41FC-AA71-E5DCF36DABF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44413369-5896-4AC4-B3F4-052FF97E5B16}">
   <dimension ref="A2:G119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
@@ -7068,20 +7049,20 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="F6" s="45" t="s">
         <v>269</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>270</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>271</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -7091,10 +7072,10 @@
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="0">
@@ -7103,7 +7084,7 @@
       <c r="E7" s="46">
         <v>4</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="48">
         <f>+D7*E7</f>
         <v>4</v>
       </c>
@@ -7115,10 +7096,10 @@
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="0">
@@ -7127,7 +7108,7 @@
       <c r="E8" s="46">
         <v>4</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="48">
         <f ref="F8:F71" t="shared" si="0">+D8*E8</f>
         <v>20</v>
       </c>
@@ -7139,10 +7120,10 @@
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="43" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="0">
@@ -7151,7 +7132,7 @@
       <c r="E9" s="46">
         <v>5</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -7163,10 +7144,10 @@
       <c r="A10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="43" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="0">
@@ -7175,7 +7156,7 @@
       <c r="E10" s="46">
         <v>3</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="48">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7187,10 +7168,10 @@
       <c r="A11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="43" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="0">
@@ -7199,7 +7180,7 @@
       <c r="E11" s="46">
         <v>33</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="48">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -7211,10 +7192,10 @@
       <c r="A12" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="43" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="0">
@@ -7223,7 +7204,7 @@
       <c r="E12" s="46">
         <v>23</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="48">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
@@ -7235,10 +7216,10 @@
       <c r="A13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="43" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="0">
@@ -7247,7 +7228,7 @@
       <c r="E13" s="46">
         <v>2</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -7259,10 +7240,10 @@
       <c r="A14" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="0">
@@ -7271,7 +7252,7 @@
       <c r="E14" s="46">
         <v>2</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="48">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7283,10 +7264,10 @@
       <c r="A15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="0">
@@ -7295,7 +7276,7 @@
       <c r="E15" s="46">
         <v>27</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="48">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -7307,10 +7288,10 @@
       <c r="A16" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="43" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="0">
@@ -7319,7 +7300,7 @@
       <c r="E16" s="46">
         <v>6</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="48">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -7331,10 +7312,10 @@
       <c r="A17" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="43" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="0">
@@ -7343,7 +7324,7 @@
       <c r="E17" s="46">
         <v>22</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="48">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -7355,10 +7336,10 @@
       <c r="A18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="43" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="0">
@@ -7367,7 +7348,7 @@
       <c r="E18" s="46">
         <v>7</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="48">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -7379,10 +7360,10 @@
       <c r="A19" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="43" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="0">
@@ -7391,7 +7372,7 @@
       <c r="E19" s="46">
         <v>2</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -7403,10 +7384,10 @@
       <c r="A20" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="43" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="0">
@@ -7415,7 +7396,7 @@
       <c r="E20" s="46">
         <v>4</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="48">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -7427,10 +7408,10 @@
       <c r="A21" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="43" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="0">
@@ -7439,7 +7420,7 @@
       <c r="E21" s="46">
         <v>2</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="48">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7451,10 +7432,10 @@
       <c r="A22" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="43" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="0">
@@ -7463,7 +7444,7 @@
       <c r="E22" s="46">
         <v>41</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="48">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -7475,10 +7456,10 @@
       <c r="A23" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="0">
@@ -7487,7 +7468,7 @@
       <c r="E23" s="46">
         <v>24</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="48">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -7499,10 +7480,10 @@
       <c r="A24" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="43" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="0">
@@ -7511,7 +7492,7 @@
       <c r="E24" s="46">
         <v>84</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="48">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
@@ -7523,10 +7504,10 @@
       <c r="A25" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="43" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="0">
@@ -7535,7 +7516,7 @@
       <c r="E25" s="46">
         <v>92</v>
       </c>
-      <c r="F25" s="47">
+      <c r="F25" s="48">
         <f t="shared" si="0"/>
         <v>460</v>
       </c>
@@ -7547,10 +7528,10 @@
       <c r="A26" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="43" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="0">
@@ -7559,7 +7540,7 @@
       <c r="E26" s="46">
         <v>5</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -7571,10 +7552,10 @@
       <c r="A27" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="43" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="0">
@@ -7583,7 +7564,7 @@
       <c r="E27" s="46">
         <v>7</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="48">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -7595,10 +7576,10 @@
       <c r="A28" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="43" t="s">
         <v>59</v>
       </c>
       <c r="D28" s="0">
@@ -7607,7 +7588,7 @@
       <c r="E28" s="46">
         <v>13</v>
       </c>
-      <c r="F28" s="47">
+      <c r="F28" s="48">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -7619,10 +7600,10 @@
       <c r="A29" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="43" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="0">
@@ -7631,7 +7612,7 @@
       <c r="E29" s="46">
         <v>6</v>
       </c>
-      <c r="F29" s="47">
+      <c r="F29" s="48">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -7643,10 +7624,10 @@
       <c r="A30" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="0">
@@ -7655,7 +7636,7 @@
       <c r="E30" s="46">
         <v>8</v>
       </c>
-      <c r="F30" s="47">
+      <c r="F30" s="48">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -7667,10 +7648,10 @@
       <c r="A31" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="43" t="s">
         <v>65</v>
       </c>
       <c r="D31" s="0">
@@ -7679,7 +7660,7 @@
       <c r="E31" s="46">
         <v>5</v>
       </c>
-      <c r="F31" s="47">
+      <c r="F31" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -7691,10 +7672,10 @@
       <c r="A32" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="43" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="0">
@@ -7703,7 +7684,7 @@
       <c r="E32" s="46">
         <v>1</v>
       </c>
-      <c r="F32" s="47">
+      <c r="F32" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -7715,10 +7696,10 @@
       <c r="A33" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="43" t="s">
         <v>69</v>
       </c>
       <c r="D33" s="0">
@@ -7727,7 +7708,7 @@
       <c r="E33" s="46">
         <v>2</v>
       </c>
-      <c r="F33" s="47">
+      <c r="F33" s="48">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7739,10 +7720,10 @@
       <c r="A34" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="43" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="0">
@@ -7751,7 +7732,7 @@
       <c r="E34" s="46">
         <v>3</v>
       </c>
-      <c r="F34" s="47">
+      <c r="F34" s="48">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -7763,10 +7744,10 @@
       <c r="A35" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="43" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="0">
@@ -7775,7 +7756,7 @@
       <c r="E35" s="46">
         <v>4</v>
       </c>
-      <c r="F35" s="47">
+      <c r="F35" s="48">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7787,10 +7768,10 @@
       <c r="A36" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="43" t="s">
         <v>76</v>
       </c>
       <c r="D36" s="0">
@@ -7799,7 +7780,7 @@
       <c r="E36" s="46">
         <v>8</v>
       </c>
-      <c r="F36" s="47">
+      <c r="F36" s="48">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -7811,10 +7792,10 @@
       <c r="A37" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="43" t="s">
         <v>78</v>
       </c>
       <c r="D37" s="0">
@@ -7823,7 +7804,7 @@
       <c r="E37" s="46">
         <v>14</v>
       </c>
-      <c r="F37" s="47">
+      <c r="F37" s="48">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -7835,10 +7816,10 @@
       <c r="A38" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D38" s="0">
@@ -7847,7 +7828,7 @@
       <c r="E38" s="46">
         <v>6</v>
       </c>
-      <c r="F38" s="47">
+      <c r="F38" s="48">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -7859,10 +7840,10 @@
       <c r="A39" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="43" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="0">
@@ -7871,7 +7852,7 @@
       <c r="E39" s="46">
         <v>14</v>
       </c>
-      <c r="F39" s="47">
+      <c r="F39" s="48">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -7883,10 +7864,10 @@
       <c r="A40" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="43" t="s">
         <v>84</v>
       </c>
       <c r="D40" s="0">
@@ -7895,7 +7876,7 @@
       <c r="E40" s="46">
         <v>1</v>
       </c>
-      <c r="F40" s="47">
+      <c r="F40" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7907,10 +7888,10 @@
       <c r="A41" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="43" t="s">
         <v>86</v>
       </c>
       <c r="D41" s="0">
@@ -7919,7 +7900,7 @@
       <c r="E41" s="46">
         <v>4</v>
       </c>
-      <c r="F41" s="47">
+      <c r="F41" s="48">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7931,10 +7912,10 @@
       <c r="A42" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="43" t="s">
         <v>88</v>
       </c>
       <c r="D42" s="0">
@@ -7943,7 +7924,7 @@
       <c r="E42" s="46">
         <v>2</v>
       </c>
-      <c r="F42" s="47">
+      <c r="F42" s="48">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7955,10 +7936,10 @@
       <c r="A43" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="43" t="s">
         <v>91</v>
       </c>
       <c r="D43" s="0">
@@ -7967,7 +7948,7 @@
       <c r="E43" s="46">
         <v>24</v>
       </c>
-      <c r="F43" s="47">
+      <c r="F43" s="48">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -7979,10 +7960,10 @@
       <c r="A44" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="43" t="s">
         <v>93</v>
       </c>
       <c r="D44" s="0">
@@ -7991,7 +7972,7 @@
       <c r="E44" s="46">
         <v>5</v>
       </c>
-      <c r="F44" s="47">
+      <c r="F44" s="48">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -8003,10 +7984,10 @@
       <c r="A45" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="43" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="0">
@@ -8015,7 +7996,7 @@
       <c r="E45" s="46">
         <v>2</v>
       </c>
-      <c r="F45" s="47">
+      <c r="F45" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -8027,10 +8008,10 @@
       <c r="A46" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="44" t="s">
+      <c r="C46" s="43" t="s">
         <v>97</v>
       </c>
       <c r="D46" s="0">
@@ -8039,7 +8020,7 @@
       <c r="E46" s="46">
         <v>2</v>
       </c>
-      <c r="F46" s="47">
+      <c r="F46" s="48">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -8051,10 +8032,10 @@
       <c r="A47" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="43" t="s">
         <v>99</v>
       </c>
       <c r="D47" s="0">
@@ -8063,7 +8044,7 @@
       <c r="E47" s="46">
         <v>6</v>
       </c>
-      <c r="F47" s="47">
+      <c r="F47" s="48">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -8075,10 +8056,10 @@
       <c r="A48" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="43" t="s">
         <v>101</v>
       </c>
       <c r="D48" s="0">
@@ -8087,7 +8068,7 @@
       <c r="E48" s="46">
         <v>5</v>
       </c>
-      <c r="F48" s="47">
+      <c r="F48" s="48">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -8099,10 +8080,10 @@
       <c r="A49" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="43" t="s">
         <v>104</v>
       </c>
       <c r="D49" s="0">
@@ -8111,7 +8092,7 @@
       <c r="E49" s="46">
         <v>2</v>
       </c>
-      <c r="F49" s="47">
+      <c r="F49" s="48">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -8123,10 +8104,10 @@
       <c r="A50" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="43" t="s">
         <v>107</v>
       </c>
       <c r="D50" s="0">
@@ -8135,7 +8116,7 @@
       <c r="E50" s="46">
         <v>1</v>
       </c>
-      <c r="F50" s="47">
+      <c r="F50" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8147,10 +8128,10 @@
       <c r="A51" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="43" t="s">
         <v>109</v>
       </c>
       <c r="D51" s="0">
@@ -8159,7 +8140,7 @@
       <c r="E51" s="46">
         <v>3</v>
       </c>
-      <c r="F51" s="47">
+      <c r="F51" s="48">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -8171,10 +8152,10 @@
       <c r="A52" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="43" t="s">
         <v>112</v>
       </c>
       <c r="D52" s="0">
@@ -8183,7 +8164,7 @@
       <c r="E52" s="46">
         <v>23</v>
       </c>
-      <c r="F52" s="47">
+      <c r="F52" s="48">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -8195,10 +8176,10 @@
       <c r="A53" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="44" t="s">
+      <c r="C53" s="43" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="0">
@@ -8207,7 +8188,7 @@
       <c r="E53" s="46">
         <v>4</v>
       </c>
-      <c r="F53" s="47">
+      <c r="F53" s="48">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -8219,10 +8200,10 @@
       <c r="A54" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="43" t="s">
         <v>116</v>
       </c>
       <c r="D54" s="0">
@@ -8231,7 +8212,7 @@
       <c r="E54" s="46">
         <v>61</v>
       </c>
-      <c r="F54" s="47">
+      <c r="F54" s="48">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
@@ -8243,10 +8224,10 @@
       <c r="A55" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="43" t="s">
         <v>118</v>
       </c>
       <c r="D55" s="0">
@@ -8255,7 +8236,7 @@
       <c r="E55" s="46">
         <v>4</v>
       </c>
-      <c r="F55" s="47">
+      <c r="F55" s="48">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -8267,10 +8248,10 @@
       <c r="A56" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="44" t="s">
+      <c r="C56" s="43" t="s">
         <v>120</v>
       </c>
       <c r="D56" s="0">
@@ -8279,7 +8260,7 @@
       <c r="E56" s="46">
         <v>17</v>
       </c>
-      <c r="F56" s="47">
+      <c r="F56" s="48">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -8291,10 +8272,10 @@
       <c r="A57" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="43" t="s">
         <v>122</v>
       </c>
       <c r="D57" s="0">
@@ -8303,7 +8284,7 @@
       <c r="E57" s="46">
         <v>5</v>
       </c>
-      <c r="F57" s="47">
+      <c r="F57" s="48">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -8315,10 +8296,10 @@
       <c r="A58" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="44" t="s">
+      <c r="C58" s="43" t="s">
         <v>124</v>
       </c>
       <c r="D58" s="0">
@@ -8327,7 +8308,7 @@
       <c r="E58" s="46">
         <v>2</v>
       </c>
-      <c r="F58" s="47">
+      <c r="F58" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -8339,10 +8320,10 @@
       <c r="A59" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="44" t="s">
+      <c r="C59" s="43" t="s">
         <v>127</v>
       </c>
       <c r="D59" s="0">
@@ -8351,7 +8332,7 @@
       <c r="E59" s="46">
         <v>1</v>
       </c>
-      <c r="F59" s="47">
+      <c r="F59" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -8363,10 +8344,10 @@
       <c r="A60" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="43" t="s">
         <v>129</v>
       </c>
       <c r="D60" s="0">
@@ -8375,7 +8356,7 @@
       <c r="E60" s="46">
         <v>52</v>
       </c>
-      <c r="F60" s="47">
+      <c r="F60" s="48">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -8387,10 +8368,10 @@
       <c r="A61" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="44" t="s">
+      <c r="C61" s="43" t="s">
         <v>131</v>
       </c>
       <c r="D61" s="0">
@@ -8399,7 +8380,7 @@
       <c r="E61" s="46">
         <v>14</v>
       </c>
-      <c r="F61" s="47">
+      <c r="F61" s="48">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -8411,10 +8392,10 @@
       <c r="A62" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="44" t="s">
+      <c r="C62" s="43" t="s">
         <v>133</v>
       </c>
       <c r="D62" s="0">
@@ -8423,7 +8404,7 @@
       <c r="E62" s="46">
         <v>32</v>
       </c>
-      <c r="F62" s="47">
+      <c r="F62" s="48">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -8435,10 +8416,10 @@
       <c r="A63" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="43" t="s">
         <v>136</v>
       </c>
       <c r="D63" s="0">
@@ -8447,7 +8428,7 @@
       <c r="E63" s="46">
         <v>12</v>
       </c>
-      <c r="F63" s="47">
+      <c r="F63" s="48">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -8459,10 +8440,10 @@
       <c r="A64" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="44" t="s">
+      <c r="C64" s="43" t="s">
         <v>138</v>
       </c>
       <c r="D64" s="0">
@@ -8471,7 +8452,7 @@
       <c r="E64" s="46">
         <v>25</v>
       </c>
-      <c r="F64" s="47">
+      <c r="F64" s="48">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -8483,10 +8464,10 @@
       <c r="A65" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="44" t="s">
+      <c r="C65" s="43" t="s">
         <v>140</v>
       </c>
       <c r="D65" s="0">
@@ -8495,7 +8476,7 @@
       <c r="E65" s="46">
         <v>1</v>
       </c>
-      <c r="F65" s="47">
+      <c r="F65" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8507,10 +8488,10 @@
       <c r="A66" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="44" t="s">
+      <c r="C66" s="43" t="s">
         <v>142</v>
       </c>
       <c r="D66" s="0">
@@ -8519,7 +8500,7 @@
       <c r="E66" s="46">
         <v>8</v>
       </c>
-      <c r="F66" s="47">
+      <c r="F66" s="48">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -8531,10 +8512,10 @@
       <c r="A67" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="44" t="s">
+      <c r="C67" s="43" t="s">
         <v>144</v>
       </c>
       <c r="D67" s="0">
@@ -8543,7 +8524,7 @@
       <c r="E67" s="46">
         <v>8</v>
       </c>
-      <c r="F67" s="47">
+      <c r="F67" s="48">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -8555,10 +8536,10 @@
       <c r="A68" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C68" s="44" t="s">
+      <c r="C68" s="43" t="s">
         <v>146</v>
       </c>
       <c r="D68" s="0">
@@ -8567,7 +8548,7 @@
       <c r="E68" s="46">
         <v>1</v>
       </c>
-      <c r="F68" s="47">
+      <c r="F68" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8579,10 +8560,10 @@
       <c r="A69" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="C69" s="44" t="s">
+      <c r="C69" s="43" t="s">
         <v>148</v>
       </c>
       <c r="D69" s="0">
@@ -8591,7 +8572,7 @@
       <c r="E69" s="46">
         <v>1</v>
       </c>
-      <c r="F69" s="47">
+      <c r="F69" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -8603,10 +8584,10 @@
       <c r="A70" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="C70" s="44" t="s">
+      <c r="C70" s="43" t="s">
         <v>150</v>
       </c>
       <c r="D70" s="0">
@@ -8615,7 +8596,7 @@
       <c r="E70" s="46">
         <v>49</v>
       </c>
-      <c r="F70" s="47">
+      <c r="F70" s="48">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -8627,10 +8608,10 @@
       <c r="A71" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="C71" s="44" t="s">
+      <c r="C71" s="43" t="s">
         <v>152</v>
       </c>
       <c r="D71" s="0">
@@ -8639,7 +8620,7 @@
       <c r="E71" s="46">
         <v>12</v>
       </c>
-      <c r="F71" s="47">
+      <c r="F71" s="48">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -8651,10 +8632,10 @@
       <c r="A72" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="C72" s="44" t="s">
+      <c r="C72" s="43" t="s">
         <v>154</v>
       </c>
       <c r="D72" s="0">
@@ -8663,7 +8644,7 @@
       <c r="E72" s="46">
         <v>7</v>
       </c>
-      <c r="F72" s="47">
+      <c r="F72" s="48">
         <f ref="F72:F115" t="shared" si="1">+D72*E72</f>
         <v>7</v>
       </c>
@@ -8675,10 +8656,10 @@
       <c r="A73" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="C73" s="44" t="s">
+      <c r="C73" s="43" t="s">
         <v>156</v>
       </c>
       <c r="D73" s="0">
@@ -8687,7 +8668,7 @@
       <c r="E73" s="46">
         <v>19</v>
       </c>
-      <c r="F73" s="47">
+      <c r="F73" s="48">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
@@ -8699,10 +8680,10 @@
       <c r="A74" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="C74" s="44" t="s">
+      <c r="C74" s="43" t="s">
         <v>159</v>
       </c>
       <c r="D74" s="0">
@@ -8711,7 +8692,7 @@
       <c r="E74" s="46">
         <v>10</v>
       </c>
-      <c r="F74" s="47">
+      <c r="F74" s="48">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -8723,10 +8704,10 @@
       <c r="A75" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="C75" s="44" t="s">
+      <c r="C75" s="43" t="s">
         <v>161</v>
       </c>
       <c r="D75" s="0">
@@ -8735,7 +8716,7 @@
       <c r="E75" s="46">
         <v>30</v>
       </c>
-      <c r="F75" s="47">
+      <c r="F75" s="48">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -8747,10 +8728,10 @@
       <c r="A76" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B76" s="42" t="s">
+      <c r="B76" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="C76" s="44" t="s">
+      <c r="C76" s="43" t="s">
         <v>163</v>
       </c>
       <c r="D76" s="0">
@@ -8759,7 +8740,7 @@
       <c r="E76" s="46">
         <v>1</v>
       </c>
-      <c r="F76" s="47">
+      <c r="F76" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -8771,10 +8752,10 @@
       <c r="A77" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B77" s="42" t="s">
+      <c r="B77" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="44" t="s">
+      <c r="C77" s="43" t="s">
         <v>165</v>
       </c>
       <c r="D77" s="0">
@@ -8783,7 +8764,7 @@
       <c r="E77" s="46">
         <v>10</v>
       </c>
-      <c r="F77" s="47">
+      <c r="F77" s="48">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -8795,10 +8776,10 @@
       <c r="A78" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B78" s="42" t="s">
+      <c r="B78" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="C78" s="44" t="s">
+      <c r="C78" s="43" t="s">
         <v>167</v>
       </c>
       <c r="D78" s="0">
@@ -8807,7 +8788,7 @@
       <c r="E78" s="46">
         <v>3</v>
       </c>
-      <c r="F78" s="47">
+      <c r="F78" s="48">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -8819,10 +8800,10 @@
       <c r="A79" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="C79" s="44" t="s">
+      <c r="C79" s="43" t="s">
         <v>169</v>
       </c>
       <c r="D79" s="0">
@@ -8831,7 +8812,7 @@
       <c r="E79" s="46">
         <v>8</v>
       </c>
-      <c r="F79" s="47">
+      <c r="F79" s="48">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -8843,10 +8824,10 @@
       <c r="A80" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="42" t="s">
+      <c r="B80" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="C80" s="44" t="s">
+      <c r="C80" s="43" t="s">
         <v>171</v>
       </c>
       <c r="D80" s="0">
@@ -8855,7 +8836,7 @@
       <c r="E80" s="46">
         <v>1</v>
       </c>
-      <c r="F80" s="47">
+      <c r="F80" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -8867,10 +8848,10 @@
       <c r="A81" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B81" s="42" t="s">
+      <c r="B81" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="C81" s="44" t="s">
+      <c r="C81" s="43" t="s">
         <v>173</v>
       </c>
       <c r="D81" s="0">
@@ -8879,7 +8860,7 @@
       <c r="E81" s="46">
         <v>10</v>
       </c>
-      <c r="F81" s="47">
+      <c r="F81" s="48">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -8891,10 +8872,10 @@
       <c r="A82" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B82" s="42" t="s">
+      <c r="B82" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C82" s="44" t="s">
+      <c r="C82" s="43" t="s">
         <v>175</v>
       </c>
       <c r="D82" s="0">
@@ -8903,7 +8884,7 @@
       <c r="E82" s="46">
         <v>4</v>
       </c>
-      <c r="F82" s="47">
+      <c r="F82" s="48">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -8915,10 +8896,10 @@
       <c r="A83" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B83" s="42" t="s">
+      <c r="B83" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C83" s="44" t="s">
+      <c r="C83" s="43" t="s">
         <v>177</v>
       </c>
       <c r="D83" s="0">
@@ -8927,7 +8908,7 @@
       <c r="E83" s="46">
         <v>2</v>
       </c>
-      <c r="F83" s="47">
+      <c r="F83" s="48">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -8939,10 +8920,10 @@
       <c r="A84" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B84" s="42" t="s">
+      <c r="B84" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="C84" s="44" t="s">
+      <c r="C84" s="43" t="s">
         <v>179</v>
       </c>
       <c r="D84" s="0">
@@ -8951,7 +8932,7 @@
       <c r="E84" s="46">
         <v>2</v>
       </c>
-      <c r="F84" s="47">
+      <c r="F84" s="48">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -8963,10 +8944,10 @@
       <c r="A85" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B85" s="42" t="s">
+      <c r="B85" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="C85" s="44" t="s">
+      <c r="C85" s="43" t="s">
         <v>182</v>
       </c>
       <c r="D85" s="0">
@@ -8975,7 +8956,7 @@
       <c r="E85" s="46">
         <v>79</v>
       </c>
-      <c r="F85" s="47">
+      <c r="F85" s="48">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
@@ -8987,10 +8968,10 @@
       <c r="A86" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B86" s="42" t="s">
+      <c r="B86" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="C86" s="44" t="s">
+      <c r="C86" s="43" t="s">
         <v>184</v>
       </c>
       <c r="D86" s="0">
@@ -8999,7 +8980,7 @@
       <c r="E86" s="46">
         <v>30</v>
       </c>
-      <c r="F86" s="47">
+      <c r="F86" s="48">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
@@ -9011,10 +8992,10 @@
       <c r="A87" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B87" s="42" t="s">
+      <c r="B87" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="C87" s="44" t="s">
+      <c r="C87" s="43" t="s">
         <v>187</v>
       </c>
       <c r="D87" s="0">
@@ -9023,7 +9004,7 @@
       <c r="E87" s="46">
         <v>8</v>
       </c>
-      <c r="F87" s="47">
+      <c r="F87" s="48">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -9035,10 +9016,10 @@
       <c r="A88" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B88" s="42" t="s">
+      <c r="B88" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="C88" s="44" t="s">
+      <c r="C88" s="43" t="s">
         <v>189</v>
       </c>
       <c r="D88" s="0">
@@ -9047,7 +9028,7 @@
       <c r="E88" s="46">
         <v>4</v>
       </c>
-      <c r="F88" s="47">
+      <c r="F88" s="48">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -9059,10 +9040,10 @@
       <c r="A89" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B89" s="42" t="s">
+      <c r="B89" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="C89" s="44" t="s">
+      <c r="C89" s="43" t="s">
         <v>191</v>
       </c>
       <c r="D89" s="0">
@@ -9071,7 +9052,7 @@
       <c r="E89" s="46">
         <v>33</v>
       </c>
-      <c r="F89" s="47">
+      <c r="F89" s="48">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
@@ -9083,10 +9064,10 @@
       <c r="A90" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B90" s="42" t="s">
+      <c r="B90" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="C90" s="44" t="s">
+      <c r="C90" s="43" t="s">
         <v>193</v>
       </c>
       <c r="D90" s="0">
@@ -9095,7 +9076,7 @@
       <c r="E90" s="46">
         <v>13</v>
       </c>
-      <c r="F90" s="47">
+      <c r="F90" s="48">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -9107,10 +9088,10 @@
       <c r="A91" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B91" s="42" t="s">
+      <c r="B91" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="C91" s="44" t="s">
+      <c r="C91" s="43" t="s">
         <v>195</v>
       </c>
       <c r="D91" s="0">
@@ -9119,7 +9100,7 @@
       <c r="E91" s="46">
         <v>3</v>
       </c>
-      <c r="F91" s="47">
+      <c r="F91" s="48">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -9131,10 +9112,10 @@
       <c r="A92" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="B92" s="42" t="s">
+      <c r="B92" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="C92" s="44" t="s">
+      <c r="C92" s="43" t="s">
         <v>198</v>
       </c>
       <c r="D92" s="0">
@@ -9143,7 +9124,7 @@
       <c r="E92" s="46">
         <v>42</v>
       </c>
-      <c r="F92" s="47">
+      <c r="F92" s="48">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
@@ -9155,19 +9136,19 @@
       <c r="A93" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="43" t="s">
         <v>201</v>
       </c>
       <c r="D93" s="0">
         <v>1</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="46">
         <v>24</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="48">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -9179,19 +9160,19 @@
       <c r="A94" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="43" t="s">
         <v>203</v>
       </c>
       <c r="D94" s="0">
         <v>5</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="46">
         <v>10</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="48">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -9203,19 +9184,19 @@
       <c r="A95" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="43" t="s">
         <v>205</v>
       </c>
       <c r="D95" s="0">
         <v>1</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="46">
         <v>26</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="48">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -9227,19 +9208,19 @@
       <c r="A96" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="43" t="s">
         <v>207</v>
       </c>
       <c r="D96" s="0">
         <v>5</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="46">
         <v>13</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="48">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -9251,19 +9232,19 @@
       <c r="A97" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="43" t="s">
         <v>210</v>
       </c>
       <c r="D97" s="0">
         <v>1</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="46">
         <v>7</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="48">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -9275,19 +9256,19 @@
       <c r="A98" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" s="43" t="s">
         <v>213</v>
       </c>
       <c r="D98" s="0">
         <v>1</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="46">
         <v>3</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="48">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -9299,19 +9280,19 @@
       <c r="A99" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="43" t="s">
         <v>215</v>
       </c>
       <c r="D99" s="0">
         <v>1</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="46">
         <v>10</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="48">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -9323,19 +9304,19 @@
       <c r="A100" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="43" t="s">
         <v>217</v>
       </c>
       <c r="D100" s="0">
         <v>5</v>
       </c>
-      <c r="E100" s="3">
-        <v>1</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="E100" s="46">
+        <v>1</v>
+      </c>
+      <c r="F100" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -9347,19 +9328,19 @@
       <c r="A101" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" s="43" t="s">
         <v>219</v>
       </c>
       <c r="D101" s="0">
         <v>1</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="46">
         <v>29</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="48">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
@@ -9371,19 +9352,19 @@
       <c r="A102" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" s="43" t="s">
         <v>221</v>
       </c>
       <c r="D102" s="0">
         <v>5</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="46">
         <v>20</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="48">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -9395,19 +9376,19 @@
       <c r="A103" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" s="43" t="s">
         <v>224</v>
       </c>
       <c r="D103" s="0">
         <v>0.5</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="46">
         <v>14</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="48">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -9419,15 +9400,15 @@
       <c r="A104" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="41">
         <v>3040</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="44" t="s">
         <v>226</v>
       </c>
       <c r="D104" s="1"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="4">
+      <c r="E104" s="47"/>
+      <c r="F104" s="49">
         <f>SUM(F7:F103)</f>
         <v>2949</v>
       </c>
@@ -9445,20 +9426,20 @@
       <c r="A106" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B106" s="41" t="s">
+      <c r="B106" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="C106" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="D106" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="C106" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="D106" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" s="45" t="s">
-        <v>270</v>
-      </c>
       <c r="F106" s="45" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>10</v>
@@ -9468,10 +9449,10 @@
       <c r="A107" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B107" s="42" t="s">
+      <c r="B107" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="C107" s="44" t="s">
+      <c r="C107" s="43" t="s">
         <v>229</v>
       </c>
       <c r="D107" s="0">
@@ -9480,7 +9461,7 @@
       <c r="E107" s="46">
         <v>39</v>
       </c>
-      <c r="F107" s="47">
+      <c r="F107" s="48">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -9492,10 +9473,10 @@
       <c r="A108" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B108" s="42" t="s">
+      <c r="B108" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="C108" s="44" t="s">
+      <c r="C108" s="43" t="s">
         <v>231</v>
       </c>
       <c r="D108" s="0">
@@ -9504,7 +9485,7 @@
       <c r="E108" s="46">
         <v>13</v>
       </c>
-      <c r="F108" s="47">
+      <c r="F108" s="48">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -9516,10 +9497,10 @@
       <c r="A109" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B109" s="42" t="s">
+      <c r="B109" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="C109" s="44" t="s">
+      <c r="C109" s="43" t="s">
         <v>233</v>
       </c>
       <c r="D109" s="0">
@@ -9528,7 +9509,7 @@
       <c r="E109" s="46">
         <v>70</v>
       </c>
-      <c r="F109" s="47">
+      <c r="F109" s="48">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -9540,10 +9521,10 @@
       <c r="A110" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B110" s="42" t="s">
+      <c r="B110" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="C110" s="44" t="s">
+      <c r="C110" s="43" t="s">
         <v>235</v>
       </c>
       <c r="D110" s="0">
@@ -9552,7 +9533,7 @@
       <c r="E110" s="46">
         <v>62</v>
       </c>
-      <c r="F110" s="47">
+      <c r="F110" s="48">
         <f t="shared" si="1"/>
         <v>310</v>
       </c>
@@ -9564,10 +9545,10 @@
       <c r="A111" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B111" s="42" t="s">
+      <c r="B111" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="C111" s="44" t="s">
+      <c r="C111" s="43" t="s">
         <v>237</v>
       </c>
       <c r="D111" s="0">
@@ -9576,7 +9557,7 @@
       <c r="E111" s="46">
         <v>4</v>
       </c>
-      <c r="F111" s="47">
+      <c r="F111" s="48">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -9588,10 +9569,10 @@
       <c r="A112" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B112" s="42" t="s">
+      <c r="B112" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="C112" s="44" t="s">
+      <c r="C112" s="43" t="s">
         <v>239</v>
       </c>
       <c r="D112" s="0">
@@ -9600,7 +9581,7 @@
       <c r="E112" s="46">
         <v>2</v>
       </c>
-      <c r="F112" s="47">
+      <c r="F112" s="48">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -9612,10 +9593,10 @@
       <c r="A113" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B113" s="42" t="s">
+      <c r="B113" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="C113" s="44" t="s">
+      <c r="C113" s="43" t="s">
         <v>241</v>
       </c>
       <c r="D113" s="0">
@@ -9624,7 +9605,7 @@
       <c r="E113" s="46">
         <v>9</v>
       </c>
-      <c r="F113" s="47">
+      <c r="F113" s="48">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -9636,10 +9617,10 @@
       <c r="A114" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B114" s="42" t="s">
+      <c r="B114" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="C114" s="44" t="s">
+      <c r="C114" s="43" t="s">
         <v>243</v>
       </c>
       <c r="D114" s="0">
@@ -9648,7 +9629,7 @@
       <c r="E114" s="46">
         <v>3</v>
       </c>
-      <c r="F114" s="47">
+      <c r="F114" s="48">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -9660,10 +9641,10 @@
       <c r="A115" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B115" s="42" t="s">
+      <c r="B115" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="C115" s="44" t="s">
+      <c r="C115" s="43" t="s">
         <v>245</v>
       </c>
       <c r="D115" s="0">
@@ -9672,7 +9653,7 @@
       <c r="E115" s="46">
         <v>9</v>
       </c>
-      <c r="F115" s="47">
+      <c r="F115" s="48">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -9684,15 +9665,15 @@
       <c r="A116" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="41">
         <v>3040</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="44" t="s">
         <v>226</v>
       </c>
       <c r="D116" s="1"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="4">
+      <c r="E116" s="47"/>
+      <c r="F116" s="49">
         <f>SUM(F107:F115)</f>
         <v>555</v>
       </c>
